--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43902,6 +43902,43 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43939,6 +43939,41 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43974,6 +43974,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44011,6 +44011,43 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44048,6 +44048,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44085,6 +44085,41 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>9900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44120,6 +44120,41 @@
         <v>9900</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44155,6 +44155,43 @@
         <v>200</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44192,6 +44192,41 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44227,6 +44227,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44262,6 +44262,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44299,6 +44299,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44336,6 +44336,78 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>21000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44408,6 +44408,76 @@
         <v>21000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>35600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44478,6 +44478,43 @@
         <v>35600</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44515,6 +44515,41 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>23000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44550,6 +44550,41 @@
         <v>23000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>19600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44585,6 +44585,43 @@
         <v>19600</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44622,6 +44622,76 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44692,6 +44692,41 @@
         <v>300</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>4200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44727,6 +44727,41 @@
         <v>4200</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2289"/>
+  <dimension ref="A1:I2290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81827,6 +81827,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="2290">
+      <c r="A2290" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2290" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D2290" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E2290" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F2290" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G2290" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H2290" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I2290" t="n">
+        <v>5600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2290"/>
+  <dimension ref="A1:I2291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81862,6 +81862,43 @@
         <v>5600</v>
       </c>
     </row>
+    <row r="2291">
+      <c r="A2291" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2291" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D2291" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E2291" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F2291" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G2291" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H2291" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I2291" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2291"/>
+  <dimension ref="A1:I2292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81899,6 +81899,43 @@
         </is>
       </c>
     </row>
+    <row r="2292">
+      <c r="A2292" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2292" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E2292" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F2292" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G2292" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H2292" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I2292" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2292"/>
+  <dimension ref="A1:I2293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81936,6 +81936,43 @@
         </is>
       </c>
     </row>
+    <row r="2293">
+      <c r="A2293" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2293" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E2293" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F2293" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G2293" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H2293" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I2293" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2293"/>
+  <dimension ref="A1:I2294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81973,6 +81973,43 @@
         </is>
       </c>
     </row>
+    <row r="2294">
+      <c r="A2294" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D2294" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E2294" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G2294" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H2294" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I2294" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2294"/>
+  <dimension ref="A1:I2295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82010,6 +82010,43 @@
         </is>
       </c>
     </row>
+    <row r="2295">
+      <c r="A2295" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D2295" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E2295" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G2295" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H2295" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I2295" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2295"/>
+  <dimension ref="A1:I2296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82047,6 +82047,41 @@
         </is>
       </c>
     </row>
+    <row r="2296">
+      <c r="A2296" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D2296" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E2296" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G2296" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H2296" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I2296" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2296"/>
+  <dimension ref="A1:I2297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82082,6 +82082,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="2297">
+      <c r="A2297" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2297" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D2297" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E2297" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F2297" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G2297" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="H2297" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I2297" t="n">
+        <v>5100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2297"/>
+  <dimension ref="A1:I2298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82117,6 +82117,43 @@
         <v>5100</v>
       </c>
     </row>
+    <row r="2298">
+      <c r="A2298" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2298" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D2298" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E2298" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F2298" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G2298" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H2298" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I2298" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2298"/>
+  <dimension ref="A1:I2299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82154,6 +82154,41 @@
         </is>
       </c>
     </row>
+    <row r="2299">
+      <c r="A2299" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D2299" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E2299" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G2299" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H2299" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I2299" t="n">
+        <v>900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2299"/>
+  <dimension ref="A1:I2300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82189,6 +82189,43 @@
         <v>900</v>
       </c>
     </row>
+    <row r="2300">
+      <c r="A2300" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D2300" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E2300" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G2300" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H2300" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I2300" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2300"/>
+  <dimension ref="A1:I2301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82226,6 +82226,43 @@
         </is>
       </c>
     </row>
+    <row r="2301">
+      <c r="A2301" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E2301" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G2301" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H2301" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I2301" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2301"/>
+  <dimension ref="A1:I2302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82263,6 +82263,43 @@
         </is>
       </c>
     </row>
+    <row r="2302">
+      <c r="A2302" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D2302" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E2302" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F2302" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G2302" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H2302" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I2302" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2302"/>
+  <dimension ref="A1:I2303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82300,6 +82300,43 @@
         </is>
       </c>
     </row>
+    <row r="2303">
+      <c r="A2303" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2303" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D2303" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E2303" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F2303" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G2303" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H2303" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I2303" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2038.xlsx
+++ b/data/2038.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2303"/>
+  <dimension ref="A1:I2304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82337,6 +82337,43 @@
         </is>
       </c>
     </row>
+    <row r="2304">
+      <c r="A2304" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2304" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D2304" t="inlineStr">
+        <is>
+          <t>NSOP</t>
+        </is>
+      </c>
+      <c r="E2304" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F2304" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G2304" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H2304" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I2304" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
